--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my pm\E车险\20150403需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\wsb\wsb\问题跟进列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -578,10 +578,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用户和查勘端的客户端</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>增加防作弊统计功能</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -590,10 +586,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>后台能看到查勘员的地点布点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>要与保险公司讨论系统没有对接的情况下如何把相关信息给他们</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -606,10 +598,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>要支持相片的分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -703,6 +691,44 @@
   </si>
   <si>
     <t>挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件照过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+  </si>
+  <si>
+    <t>用户保险信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为24小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台相片预览，可以直接下一张。不用关了再打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>后台能看到查勘员的地点布点（名、电话）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员接单后，可以看到客户的保险信息（案件信息、车牌、保险公司、被保险人名字、报案人信息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再讨论，查勘员传完相完成查勘后要问客服。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,6 +887,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,32 +1188,32 @@
   <sheetData>
     <row r="5" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,D5)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,E5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,F5)</f>
@@ -1197,7 +1229,7 @@
       </c>
       <c r="I6" s="16">
         <f>SUM(D6:F6)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1208,11 +1240,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,7 +1254,7 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="5" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.25" customWidth="1"/>
+    <col min="9" max="9" width="34.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1249,7 +1282,7 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1298,7 +1331,7 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1318,11 +1351,11 @@
       <c r="E4" s="5">
         <v>42104</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1361,8 +1394,9 @@
       <c r="G6" s="5">
         <v>42119</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1378,11 +1412,11 @@
       <c r="E7" s="5">
         <v>42104</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1433,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1450,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1472,6 +1506,7 @@
       <c r="G12" s="5">
         <v>42119</v>
       </c>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -1495,6 +1530,7 @@
       <c r="G13" s="5">
         <v>42119</v>
       </c>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -1518,6 +1554,7 @@
       <c r="G14" s="5">
         <v>42119</v>
       </c>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -1556,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
@@ -1618,8 +1655,9 @@
       <c r="G19" s="5">
         <v>42119</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1627,8 +1665,14 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E20" s="5">
         <v>42104</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1647,11 +1691,11 @@
       <c r="E21" s="5">
         <v>42104</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1690,6 +1734,7 @@
       <c r="G23" s="5">
         <v>42119</v>
       </c>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
@@ -1713,6 +1758,9 @@
       <c r="G24" s="5">
         <v>42119</v>
       </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -1730,9 +1778,6 @@
       <c r="E25" s="3">
         <v>20150420</v>
       </c>
-      <c r="F25">
-        <v>20150427</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -1756,6 +1801,7 @@
       <c r="G26" s="3">
         <v>20150420</v>
       </c>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
@@ -1783,7 +1829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +1846,7 @@
         <v>20150420</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
@@ -1859,8 +1905,9 @@
       <c r="G31">
         <v>20150424</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -1871,7 +1918,10 @@
         <v>89</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -1896,6 +1946,7 @@
       <c r="G33">
         <v>20150424</v>
       </c>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -1919,6 +1970,7 @@
       <c r="G34">
         <v>20150424</v>
       </c>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -1942,6 +1994,7 @@
       <c r="G35">
         <v>20150424</v>
       </c>
+      <c r="I35"/>
     </row>
     <row r="36" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
@@ -1954,6 +2007,9 @@
       <c r="D36" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="I36" s="18" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -1977,6 +2033,7 @@
       <c r="G37">
         <v>20150424</v>
       </c>
+      <c r="I37"/>
     </row>
     <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
@@ -2023,6 +2080,7 @@
       <c r="G39">
         <v>20150424</v>
       </c>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -2121,8 +2179,9 @@
       <c r="G43">
         <v>20150424</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>117</v>
       </c>
@@ -2133,7 +2192,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2145,11 +2204,11 @@
         <v>20150424</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>121</v>
       </c>
@@ -2160,7 +2219,7 @@
         <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
@@ -2170,9 +2229,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -2181,22 +2240,22 @@
         <v>115</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="J46" s="8" t="s">
+      <c r="I46" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>114</v>
@@ -2210,9 +2269,9 @@
       <c r="H47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>48</v>
@@ -2221,28 +2280,28 @@
         <v>114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="8" t="s">
+      <c r="I48" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2269,9 +2328,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
+      <c r="I50"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>127</v>
       </c>
@@ -2282,7 +2342,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2290,18 +2350,18 @@
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>129</v>
@@ -2316,13 +2376,13 @@
         <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2341,7 +2401,7 @@
         <v>132</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -2349,7 +2409,7 @@
       <c r="H54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>133</v>
       </c>
@@ -2357,29 +2417,29 @@
         <v>48</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" t="s">
-        <v>151</v>
+      <c r="I55" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>39</v>
@@ -2392,13 +2452,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -2409,18 +2469,18 @@
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2429,19 +2489,45 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
+    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I58"/>
+  <autoFilter ref="A1:I60">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="1期需求"/>
+        <filter val="问题"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
@@ -2449,5 +2535,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -562,174 +562,203 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>删照片是要有个提醒确认功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户和查勘端的客户端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片自动打上打字，拍照时间（相片的拍照时间，如果是从照片库读取也要读取，精确到秒），拍照设备。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加防作弊统计功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要与保险公司讨论系统没有对接的情况下如何把相关信息给他们</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台导出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员的手机查勘端经常闪退，相片过大，要求客户端相片压缩在500K到1M之间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要支持相片的分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传相片的顺序错乱，保险公司对相片的要求是有顺序的，细节图需要辨认到底属于车辆哪个部位，是要按顺序看下去才会知道，所以对顺序有要求；要支持相片的分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员的手机查勘端不能批量上传图片，操作起来比较麻烦。与照片分类在一起，客户端可以批量操作，但是上传到服务器是单个队列模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和照片分类需求一起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件照过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待需求确认</t>
+  </si>
+  <si>
+    <t>用户保险信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为24小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>查勘员接单后，可以看到客户的保险信息（案件信息、车牌、保险公司、被保险人名字、报案人信息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再讨论，查勘员传完相完成查勘后要问客服。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位不准，经常定位不准误差300米左右（注，已开gps）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端默认登录帐号密码去掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓，ios</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端、查勘员端更改头像，上传完头像后，马上闪退（注：头像上传成功）。
+另外查勘员端更改头像后，在服务器里看到的还是旧的头像。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报案人头像如果没有上传，列表显示默认头像。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员、报案人上传头像，看能不能压缩截取正方形后再上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员，但是日志要显示相关过程。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>删照片是要有个提醒确认功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户和查勘端的客户端</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片自动打上打字，拍照时间（相片的拍照时间，如果是从照片库读取也要读取，精确到秒），拍照设备。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加防作弊统计功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要与保险公司讨论系统没有对接的情况下如何把相关信息给他们</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台导出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘员的手机查勘端经常闪退，相片过大，要求客户端相片压缩在500K到1M之间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>要支持相片的分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传相片的顺序错乱，保险公司对相片的要求是有顺序的，细节图需要辨认到底属于车辆哪个部位，是要按顺序看下去才会知道，所以对顺序有要求；要支持相片的分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘员的手机查勘端不能批量上传图片，操作起来比较麻烦。与照片分类在一起，客户端可以批量操作，但是上传到服务器是单个队列模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和照片分类需求一起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂起</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成总数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件照过期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待需求确认</t>
-  </si>
-  <si>
-    <t>用户保险信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>改为24小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台相片预览，可以直接下一张。不用关了再打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>后台能看到查勘员的地点布点（名、电话）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘员接单后，可以看到客户的保险信息（案件信息、车牌、保险公司、被保险人名字、报案人信息）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再讨论，查勘员传完相完成查勘后要问客服。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>案件详情点了小相片后跳到相片预览页面，可以点上一张下一张，可以旋转相片。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1188,22 +1217,22 @@
   <sheetData>
     <row r="5" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.15">
@@ -1241,11 +1270,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
@@ -1666,13 +1695,13 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="5">
         <v>42104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1759,7 +1788,7 @@
         <v>42119</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -1918,10 +1947,10 @@
         <v>89</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2008,7 +2037,7 @@
         <v>100</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -2192,7 +2221,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2219,7 +2248,7 @@
         <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
@@ -2231,7 +2260,7 @@
     </row>
     <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -2240,7 +2269,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
@@ -2271,7 +2300,7 @@
     </row>
     <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>48</v>
@@ -2280,28 +2309,28 @@
         <v>114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2342,7 +2371,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2355,13 +2384,13 @@
         <v>128</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>129</v>
@@ -2373,16 +2402,16 @@
     </row>
     <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2392,16 +2421,16 @@
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -2411,35 +2440,35 @@
     </row>
     <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>39</v>
@@ -2450,15 +2479,15 @@
       <c r="H56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
-        <v>169</v>
+    <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -2471,16 +2500,16 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2488,16 +2517,16 @@
       <c r="H58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2507,16 +2536,56 @@
     </row>
     <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>168</v>
+      <c r="C61" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -749,15 +749,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员，但是日志要显示相关过程。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>案件详情点了小相片后跳到相片预览页面，可以点上一张下一张，可以旋转相片。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员。同时日志要记录。(注：查勘中之后的状态就不可以重新指派查勘员)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1273,8 +1273,8 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2401,8 +2401,8 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
-        <v>177</v>
+      <c r="A53" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>144</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>149</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\wsb\wsb\问题跟进列表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my pm\三信\SVN\问题跟进列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>现改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>“车主管理”那里，现有的客户资料、报案人信息，是无法修改的，应该做成是可以后台修改的；</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -558,10 +554,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>待讨论</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>删照片是要有个提醒确认功能</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -759,6 +751,10 @@
   <si>
     <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员。同时日志要记录。(注：查勘中之后的状态就不可以重新指派查勘员)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1217,22 +1213,22 @@
   <sheetData>
     <row r="5" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.15">
@@ -1269,12 +1265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1384,7 +1379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1420,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1457,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
@@ -1695,13 +1690,13 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" s="5">
         <v>42104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -1724,7 +1719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>42119</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -1858,7 +1853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>20150420</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
@@ -1936,7 +1931,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -1947,10 +1942,10 @@
         <v>89</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2037,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -2210,7 +2205,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>117</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2237,7 +2232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>121</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
@@ -2258,9 +2253,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>48</v>
@@ -2269,7 +2264,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
@@ -2279,7 +2274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>124</v>
       </c>
@@ -2298,9 +2293,9 @@
       <c r="H47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>48</v>
@@ -2309,28 +2304,28 @@
         <v>114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2351,18 +2346,16 @@
       <c r="D50" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="E50" s="11"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>48</v>
@@ -2371,7 +2364,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2379,22 +2372,20 @@
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>129</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E52" s="11"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2402,16 +2393,16 @@
     </row>
     <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2421,16 +2412,16 @@
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -2438,37 +2429,37 @@
       <c r="H54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>39</v>
@@ -2481,13 +2472,13 @@
     </row>
     <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -2498,18 +2489,18 @@
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2519,14 +2510,14 @@
     </row>
     <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -2534,47 +2525,59 @@
       <c r="H59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -2582,21 +2585,17 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I60">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="1期需求"/>
-        <filter val="问题"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I65"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -751,6 +751,26 @@
   <si>
     <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员。同时日志要记录。(注：查勘中之后的状态就不可以重新指派查勘员)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员查找逻辑从最近查找改为方圆1公里范围内随机人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报案单的逻辑有问题，应该是在报案的时候就告知是否要专车或者代驾，而不是查勘员来了以后才知道是否要专车或者代驾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
@@ -1265,11 +1285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2583,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>174</v>
       </c>
@@ -2592,6 +2612,34 @@
       </c>
       <c r="C65" s="12" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66">
+        <v>20150501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67">
+        <v>20150501</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -765,15 +765,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>报案单的逻辑有问题，应该是在报案的时候就告知是否要专车或者代驾，而不是查勘员来了以后才知道是否要专车或者代驾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户端</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报案单的逻辑有问题，应该是在报案的时候就告知是否要专车或者代驾还有拖车，而不是查勘员来了以后才知道是否要专车或者代驾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓，ios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端增加报案选择（出险还是救援，救援就包括拖车，送油，轮胎更换或充气，充电服务）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1285,11 +1293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2628,18 +2636,29 @@
         <v>20150501</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="E67">
         <v>20150501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my pm\三信\SVN\问题跟进列表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\wsb\wsb\问题跟进列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -783,6 +783,33 @@
   <si>
     <t>用户端增加报案选择（出险还是救援，救援就包括拖车，送油，轮胎更换或充气，充电服务）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报案单号规则改变，把以前真实测试的报案单备份，作为以后的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓，ios</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓，后台，ios</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1301,7 @@
       </c>
       <c r="G6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,G5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,H5)</f>
@@ -1293,11 +1320,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2611,7 +2638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>174</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>179</v>
       </c>
@@ -2636,7 +2663,7 @@
         <v>20150501</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>183</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>20150501</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>185</v>
       </c>
@@ -2659,6 +2686,39 @@
       </c>
       <c r="C68" s="12" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69">
+        <v>20150502</v>
+      </c>
+      <c r="H69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\wsb\wsb\问题跟进列表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my pm\三信\SVN\问题跟进列表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="203">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>勘查员端，当有新出险单分派给自己时，应用除了推送消息外，如果当前开着应用还自动弹出弹出窗提示是否接收。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>安卓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -273,10 +269,6 @@
   </si>
   <si>
     <t>紧急重要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -430,10 +422,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>待测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查勘单号后台看到的单号和2个客户端看到的不同。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -443,10 +431,6 @@
   </si>
   <si>
     <t>安卓、IOS</t>
-  </si>
-  <si>
-    <t>待测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>220这条单，是有车主的，但日志里车主是null，以致在查勘员端、客户端，客户这里显示为无。</t>
@@ -655,10 +639,6 @@
   </si>
   <si>
     <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -745,19 +725,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>等待查勘状态的报案单，客服可以在后台重新指派查勘员。同时日志要记录。(注：查勘中之后的状态就不可以重新指派查勘员)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘员查找逻辑从最近查找改为方圆1公里范围内随机人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -810,6 +782,71 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>查勘员端，当有新出险单分派给自己时，应用除了推送消息外，如果当前开着应用还自动弹出弹出窗提示是否接收。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要能有一键到首页的按钮（多界面添加）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓、IOS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量太大，暂时挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件管理中并没有存在等待查勘员确认完毕的状态，但是有一个等待查勘员接单的状态缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+  </si>
+  <si>
+    <t>查勘员如果有未完成的查勘端，进入应用后需要直接跳转到未完成查勘端处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待安排</t>
+  </si>
+  <si>
+    <t>查勘员查找逻辑从最近查找改为方圆X公里范围内随机人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150514:IOS测试成功，安卓上传出现问题，客户端展现上传成功，但是实际照片没了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创基处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台客服发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150514：ISO端完成，安卓端无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1254,62 +1291,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I6"/>
+  <dimension ref="D5:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="4" max="5" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,D5)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,E5)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,F5)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,G5)</f>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,H5)</f>
-        <v>4</v>
-      </c>
-      <c r="I6" s="16">
-        <f>SUM(D6:F6)</f>
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="13">
+        <f>COUNTIF(Sheet1!$D:$D,I5)</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="16">
+        <f>SUM(D6:G6)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1320,11 +1364,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1341,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1367,16 +1411,16 @@
     </row>
     <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5">
         <v>42104</v>
@@ -1385,21 +1429,21 @@
         <v>42121</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5">
         <v>42104</v>
@@ -1408,44 +1452,44 @@
         <v>42121</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5">
         <v>42104</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
         <v>42104</v>
@@ -1453,16 +1497,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5">
         <v>42104</v>
@@ -1477,36 +1521,36 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>42104</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <v>42104</v>
@@ -1514,16 +1558,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
         <v>42104</v>
@@ -1531,16 +1575,16 @@
     </row>
     <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5">
         <v>42104</v>
@@ -1548,16 +1592,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5">
         <v>42104</v>
@@ -1565,16 +1609,16 @@
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5">
         <v>42104</v>
@@ -1589,16 +1633,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5">
         <v>42104</v>
@@ -1613,16 +1657,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5">
         <v>42104</v>
@@ -1637,16 +1681,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5">
         <v>42104</v>
@@ -1658,38 +1702,41 @@
         <v>42119</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
       </c>
+      <c r="G16">
+        <v>20150514</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5">
         <v>42104</v>
@@ -1697,16 +1744,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5">
         <v>42104</v>
@@ -1714,16 +1761,16 @@
     </row>
     <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5">
         <v>42104</v>
@@ -1738,54 +1785,57 @@
     </row>
     <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E20" s="5">
         <v>42104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="E21" s="5">
         <v>42104</v>
       </c>
+      <c r="G21">
+        <v>20150514</v>
+      </c>
       <c r="I21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5">
         <v>42109</v>
@@ -1793,16 +1843,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3">
         <v>20150420</v>
@@ -1817,16 +1867,16 @@
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3">
         <v>20150420</v>
@@ -1838,21 +1888,21 @@
         <v>42119</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E25" s="3">
         <v>20150420</v>
@@ -1860,16 +1910,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3">
         <v>20150420</v>
@@ -1884,16 +1934,16 @@
     </row>
     <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="3">
         <v>20150420</v>
@@ -1905,21 +1955,21 @@
         <v>20150420</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="3">
         <v>20150420</v>
@@ -1927,16 +1977,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>20150425</v>
@@ -1944,16 +1994,16 @@
     </row>
     <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="E30" s="3">
         <v>20150425</v>
@@ -1964,16 +2014,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E31" s="3">
         <v>20150421</v>
@@ -1988,33 +2038,33 @@
     </row>
     <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E33" s="3">
         <v>20150421</v>
@@ -2029,16 +2079,16 @@
     </row>
     <row r="34" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34" s="3">
         <v>20150421</v>
@@ -2053,16 +2103,16 @@
     </row>
     <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" s="3">
         <v>20150421</v>
@@ -2077,31 +2127,31 @@
     </row>
     <row r="36" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3">
         <v>20150421</v>
@@ -2116,16 +2166,16 @@
     </row>
     <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E38" s="3">
         <v>20150421</v>
@@ -2139,16 +2189,16 @@
     </row>
     <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="3">
         <v>20150421</v>
@@ -2163,16 +2213,16 @@
     </row>
     <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="E40" s="3">
         <v>20150421</v>
@@ -2186,16 +2236,16 @@
     </row>
     <row r="41" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="3">
         <v>20150421</v>
@@ -2207,21 +2257,21 @@
         <v>20150424</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="3">
         <v>20150421</v>
@@ -2233,21 +2283,21 @@
         <v>20150424</v>
       </c>
       <c r="I42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="3">
         <v>20150421</v>
@@ -2262,16 +2312,16 @@
     </row>
     <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2284,63 +2334,63 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="J45" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
@@ -2350,37 +2400,37 @@
     </row>
     <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2390,16 +2440,16 @@
     </row>
     <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="7"/>
@@ -2410,16 +2460,16 @@
     </row>
     <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2429,16 +2479,16 @@
     </row>
     <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="7"/>
@@ -2448,16 +2498,16 @@
     </row>
     <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2467,57 +2517,60 @@
     </row>
     <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
+      <c r="I54" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2527,16 +2580,16 @@
     </row>
     <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2546,16 +2599,16 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2565,168 +2618,269 @@
     </row>
     <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="C59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
+      <c r="I59" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>180</v>
+      <c r="D66" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="E66">
         <v>20150501</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E67">
         <v>20150501</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68">
+        <v>20150514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" t="s">
         <v>185</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
       </c>
       <c r="G69">
         <v>20150502</v>
       </c>
       <c r="H69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70">
+        <v>20150514</v>
+      </c>
+      <c r="H70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71">
+        <v>20150514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="B72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>191</v>
+      <c r="D72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72">
+        <v>20150514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73">
+        <v>20150514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74">
+        <v>20150514</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I65"/>
+  <autoFilter ref="A1:I74"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"待需求确认,开发中,待测试,挂起,完成"</formula1>
+      <formula1>"待需求确认,待安排,开发中,待测试,挂起,完成,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>个人资料保险单号的完善</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>安卓、IOS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
   </si>
   <si>
     <t>计费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>勘查员司机培训，教如何用应用，如何拍相上传。同时要有模拟考试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -352,10 +344,6 @@
   <si>
     <t>用户端</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓的中间状态不会更新，查勘员已经接单了，但是客户端显示状态还是联络中，不会自动刷新状态。（IOS也不会主动更新状态，必须手动更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户端</t>
@@ -773,10 +761,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>查勘员轨迹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安卓，后台，ios</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -807,45 +791,118 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+  </si>
+  <si>
+    <t>待安排</t>
+  </si>
+  <si>
+    <t>查勘员查找逻辑从最近查找改为方圆X公里范围内随机人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150514:IOS测试成功，安卓上传出现问题，客户端展现上传成功，但是实际照片没了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创基处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台客服发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150514：ISO端完成，安卓端无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS已经可以主动刷新了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>案件管理中并没有存在等待查勘员确认完毕的状态，但是有一个等待查勘员接单的状态缺失</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>安卓的中间状态不会更新，查勘员已经接单了，但是客户端显示状态还是联络中，不会自动刷新状态。（IOS也不会主动更新状态，必须手动更新）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端查看到的案件列表，和后台的不一致，后台有很多单，但是前端没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS（安卓不确定）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同保险公司需要的报案电话不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料保险单号的完善（不同保险公司单号需要自动识别到不同保险公司报案），保险要分为交强险和商业险的不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘查员司机培训，教如何用应用，如何拍相上传。同时要有模拟考试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员行动轨迹，在客户端可以实时展现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修厂的送修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员关掉应用后重新打开，客户端已经显示为在等候，但是后台还是下班状态，需要在客户端点击下班，再点击等候中，才能获取到上班状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待测试</t>
-  </si>
-  <si>
-    <t>查勘员如果有未完成的查勘端，进入应用后需要直接跳转到未完成查勘端处</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待安排</t>
-  </si>
-  <si>
-    <t>查勘员查找逻辑从最近查找改为方圆X公里范围内随机人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150514:IOS测试成功，安卓上传出现问题，客户端展现上传成功，但是实际照片没了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创基处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台客服发起查勘单右边的地图，能看到当前地图上在线的查勘员（定位描点、名、电话）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150514：ISO端完成，安卓端无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待安排</t>
+    <t>1期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员如果有未完成的查勘单，进入应用后需要直接跳转到未完成查勘端处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9:37分关应用，9:45分仍然是上班状态，12:30时看，下班了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（请问时长是多少？）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +959,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1293,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,35 +1370,35 @@
   <sheetData>
     <row r="5" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,D5)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,E5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,F5)</f>
@@ -1345,7 +1410,7 @@
       </c>
       <c r="H6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,H5)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,I5)</f>
@@ -1353,7 +1418,7 @@
       </c>
       <c r="J6" s="16">
         <f>SUM(D6:G6)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1364,11 +1429,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1411,16 +1477,16 @@
     </row>
     <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5">
         <v>42104</v>
@@ -1429,21 +1495,21 @@
         <v>42121</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5">
         <v>42104</v>
@@ -1452,61 +1518,61 @@
         <v>42121</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5">
         <v>42104</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5">
         <v>42104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
         <v>42104</v>
@@ -1519,106 +1585,109 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <v>42104</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <v>42104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>42104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>42104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="5">
         <v>42104</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I11" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>42104</v>
@@ -1631,18 +1700,18 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5">
         <v>42104</v>
@@ -1655,18 +1724,18 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5">
         <v>42104</v>
@@ -1679,18 +1748,18 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5">
         <v>42104</v>
@@ -1702,75 +1771,75 @@
         <v>42119</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
       </c>
-      <c r="G16">
-        <v>20150514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="E17" s="5">
         <v>42104</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>20150514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5">
         <v>42104</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5">
         <v>42104</v>
@@ -1783,36 +1852,36 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5">
         <v>42104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5">
         <v>42104</v>
@@ -1821,38 +1890,38 @@
         <v>20150514</v>
       </c>
       <c r="I21" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="5">
         <v>42109</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3">
         <v>20150420</v>
@@ -1865,18 +1934,18 @@
       </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3">
         <v>20150420</v>
@@ -1888,38 +1957,41 @@
         <v>42119</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3">
         <v>20150420</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I25" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
         <v>20150420</v>
@@ -1932,18 +2004,18 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="3">
         <v>20150420</v>
@@ -1955,55 +2027,55 @@
         <v>20150420</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="3">
         <v>20150420</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3">
         <v>20150425</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E30" s="3">
         <v>20150425</v>
@@ -2012,18 +2084,18 @@
         <v>20150503</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="3">
         <v>20150421</v>
@@ -2036,35 +2108,35 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3">
         <v>20150421</v>
@@ -2077,18 +2149,18 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34" s="3">
         <v>20150421</v>
@@ -2101,18 +2173,18 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E35" s="3">
         <v>20150421</v>
@@ -2125,33 +2197,33 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3">
         <v>20150421</v>
@@ -2164,18 +2236,18 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E38" s="3">
         <v>20150421</v>
@@ -2187,18 +2259,18 @@
         <v>20150424</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E39" s="3">
         <v>20150421</v>
@@ -2211,18 +2283,18 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E40" s="3">
         <v>20150421</v>
@@ -2234,18 +2306,18 @@
         <v>20150424</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3">
         <v>20150421</v>
@@ -2257,21 +2329,21 @@
         <v>20150424</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E42" s="3">
         <v>20150421</v>
@@ -2283,21 +2355,21 @@
         <v>20150424</v>
       </c>
       <c r="I42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3">
         <v>20150421</v>
@@ -2310,18 +2382,18 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2334,63 +2406,63 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="B45" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="J45" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
@@ -2398,39 +2470,39 @@
       <c r="H47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2438,18 +2510,18 @@
       <c r="H49" s="7"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="7"/>
@@ -2458,18 +2530,18 @@
       <c r="I50"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2477,18 +2549,18 @@
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="7"/>
@@ -2496,18 +2568,18 @@
       <c r="H52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2515,62 +2587,62 @@
       <c r="H53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2578,18 +2650,18 @@
       <c r="H56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2597,18 +2669,18 @@
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2616,226 +2688,238 @@
       <c r="H58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="D61" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
+      <c r="D63" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="B64" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="C65" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65">
+        <v>20150514</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E66">
         <v>20150501</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E67">
         <v>20150501</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E68">
         <v>20150514</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G69">
         <v>20150502</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E70">
         <v>20150514</v>
       </c>
       <c r="H70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E71">
         <v>20150514</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E72">
         <v>20150514</v>
@@ -2843,16 +2927,16 @@
     </row>
     <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E73">
         <v>20150514</v>
@@ -2860,23 +2944,104 @@
     </row>
     <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E74">
         <v>20150514</v>
       </c>
     </row>
+    <row r="75" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75">
+        <v>20150515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76">
+        <v>20150515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77">
+        <v>20150515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78">
+        <v>20150516</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I74"/>
+  <autoFilter ref="A1:I78">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="问题"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="待安排"/>
+        <filter val="待测试"/>
+        <filter val="开发中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="238">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -231,10 +227,6 @@
   <si>
     <t>1期需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台增加客服人员提交查勘单，同时不可指定查勘员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1期结算需要增加5000元</t>
@@ -348,10 +340,6 @@
   <si>
     <t>用户端</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2期需求</t>
@@ -590,19 +578,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>和照片分类需求一起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待需求确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1期需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -845,10 +825,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待安排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不同保险公司需要的报案电话不一样</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -870,10 +846,6 @@
   </si>
   <si>
     <t>2期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查勘员关掉应用后重新打开，客户端已经显示为在等候，但是后台还是下班状态，需要在客户端点击下班，再点击等候中，才能获取到上班状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -903,6 +875,130 @@
       </rPr>
       <t>（请问时长是多少？）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术上问题，安卓无法实现前台弹出框和推送同时进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再发一次给鬼狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台增加客服人员提交查勘单，同时不可指定查勘员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓，ios</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端需要有游客模式，不注册也可以看和发起，但是发起的时候要求注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查勘员关掉应用后重新打开，客户端已经显示为在等候，但是后台还是下班状态，需要在客户端点击下班，再点击等候中，才能获取到上班状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永吉团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永吉团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果照片做了压缩，就不存在这个问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永吉团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11日完成界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细分需求点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计新的流程数据模型的修改并和计费可以结合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计新的维修厂相关页面（包括用户端，查勘端和后台）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台系统登录分出不同角色（包括维修厂角色，客服角色，管理员角色等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的测试环境搭建，测试APP地址，代码SVN搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈向荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨蓉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基配合界面设计，杨蓉负责内容和流程设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1370,25 +1466,25 @@
   <sheetData>
     <row r="5" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D5" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.15">
@@ -1398,27 +1494,27 @@
       </c>
       <c r="E6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,E5)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,F5)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,G5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,H5)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I6" s="13">
         <f>COUNTIF(Sheet1!$D:$D,I5)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J6" s="16">
         <f>SUM(D6:G6)</f>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1430,11 +1526,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1475,9 +1571,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>41</v>
@@ -1486,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5">
         <v>42104</v>
@@ -1496,6 +1592,9 @@
       </c>
       <c r="H2" t="s">
         <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -1509,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5">
         <v>42104</v>
@@ -1521,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -1535,18 +1634,18 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5">
         <v>42104</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>43</v>
@@ -1585,7 +1684,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1622,7 +1721,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1639,9 +1738,9 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>45</v>
@@ -1656,7 +1755,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1667,13 +1766,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="E11" s="5">
         <v>42104</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
@@ -1687,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5">
         <v>42104</v>
@@ -1711,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="5">
         <v>42104</v>
@@ -1729,7 +1828,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -1750,10 +1849,10 @@
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1771,10 +1870,10 @@
         <v>42119</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1785,10 +1884,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E16" s="5">
         <v>42104</v>
+      </c>
+      <c r="G16">
+        <v>20150519</v>
       </c>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -1796,13 +1898,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E17" s="5">
         <v>42104</v>
@@ -1839,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5">
         <v>42104</v>
@@ -1861,27 +1963,27 @@
         <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E20" s="5">
         <v>42104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E21" s="5">
         <v>42104</v>
@@ -1890,18 +1992,18 @@
         <v>20150514</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>36</v>
@@ -1912,16 +2014,16 @@
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>20150420</v>
@@ -1936,16 +2038,16 @@
     </row>
     <row r="24" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3">
         <v>20150420</v>
@@ -1957,41 +2059,41 @@
         <v>42119</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3">
         <v>20150420</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>20150420</v>
@@ -2006,16 +2108,16 @@
     </row>
     <row r="27" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3">
         <v>20150420</v>
@@ -2027,18 +2129,18 @@
         <v>20150420</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
@@ -2047,15 +2149,15 @@
         <v>20150420</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2063,19 +2165,25 @@
       <c r="E29" s="3">
         <v>20150425</v>
       </c>
+      <c r="F29">
+        <v>20150611</v>
+      </c>
+      <c r="H29" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E30" s="3">
         <v>20150425</v>
@@ -2086,16 +2194,16 @@
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E31" s="3">
         <v>20150421</v>
@@ -2108,35 +2216,35 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" s="3">
         <v>20150421</v>
@@ -2151,16 +2259,16 @@
     </row>
     <row r="34" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E34" s="3">
         <v>20150421</v>
@@ -2175,16 +2283,16 @@
     </row>
     <row r="35" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3">
         <v>20150421</v>
@@ -2199,31 +2307,31 @@
     </row>
     <row r="36" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3">
         <v>20150421</v>
@@ -2238,16 +2346,16 @@
     </row>
     <row r="38" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E38" s="3">
         <v>20150421</v>
@@ -2261,16 +2369,16 @@
     </row>
     <row r="39" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3">
         <v>20150421</v>
@@ -2285,16 +2393,16 @@
     </row>
     <row r="40" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E40" s="3">
         <v>20150421</v>
@@ -2308,16 +2416,16 @@
     </row>
     <row r="41" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E41" s="3">
         <v>20150421</v>
@@ -2329,21 +2437,21 @@
         <v>20150424</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3">
         <v>20150421</v>
@@ -2355,21 +2463,21 @@
         <v>20150424</v>
       </c>
       <c r="I42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E43" s="3">
         <v>20150421</v>
@@ -2382,18 +2490,18 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E44" s="3">
         <v>20150421</v>
@@ -2406,103 +2514,110 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="J45" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
+      <c r="F46">
+        <v>20150611</v>
+      </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I46" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
+      <c r="I47" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="B49" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
@@ -2512,16 +2627,16 @@
     </row>
     <row r="50" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="7"/>
@@ -2530,18 +2645,18 @@
       <c r="I50"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="7"/>
@@ -2549,18 +2664,18 @@
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="7"/>
@@ -2570,16 +2685,16 @@
     </row>
     <row r="53" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2589,57 +2704,57 @@
     </row>
     <row r="54" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
@@ -2650,18 +2765,18 @@
       <c r="H56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -2669,18 +2784,18 @@
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -2688,357 +2803,504 @@
       <c r="H58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="F60">
+        <v>20150611</v>
+      </c>
+      <c r="H60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G65">
         <v>20150514</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E66">
         <v>20150501</v>
       </c>
+      <c r="F66">
+        <v>20150611</v>
+      </c>
+      <c r="H66" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E67">
         <v>20150501</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E68">
         <v>20150514</v>
       </c>
+      <c r="F68">
+        <v>20150611</v>
+      </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
         <v>176</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" t="s">
-        <v>181</v>
       </c>
       <c r="G69">
         <v>20150502</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E70">
         <v>20150514</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>20150514</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>20150514</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E73">
         <v>20150514</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="G73">
+        <v>20150518</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E74">
         <v>20150514</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="G74">
+        <v>20150515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E75">
         <v>20150515</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>20150515</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="E77">
         <v>20150515</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I77" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E78">
         <v>20150516</v>
       </c>
+      <c r="G78">
+        <v>20150519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79">
+        <v>20150518</v>
+      </c>
+      <c r="F79">
+        <v>20150611</v>
+      </c>
+      <c r="H79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80">
+        <v>20150606</v>
+      </c>
+      <c r="F80">
+        <v>20150611</v>
+      </c>
+      <c r="H80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81">
+        <v>20150606</v>
+      </c>
+      <c r="F81">
+        <v>20150611</v>
+      </c>
+      <c r="H81" t="s">
+        <v>236</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82">
+        <v>20150606</v>
+      </c>
+      <c r="F82">
+        <v>20150611</v>
+      </c>
+      <c r="H82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83">
+        <v>20150606</v>
+      </c>
+      <c r="F83">
+        <v>20150611</v>
+      </c>
+      <c r="H83" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I78">
+  <autoFilter ref="A1:I79">
     <filterColumn colId="1">
       <filters>
-        <filter val="问题"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="待安排"/>
-        <filter val="待测试"/>
-        <filter val="开发中"/>
+        <filter val="2期需求"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/问题跟进列表/E车险需求和问题列表.xlsx
+++ b/问题跟进列表/E车险需求和问题列表.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="240">
   <si>
     <t>归属系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -950,55 +950,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>设计新的维修厂相关页面（包括用户端，查勘端和后台）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台系统登录分出不同角色（包括维修厂角色，客服角色，管理员角色等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹健鸣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的测试环境搭建，测试APP地址，代码SVN搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>陈向荣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>设计新的维修厂相关页面（包括用户端，查勘端和后台）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台系统登录分出不同角色（包括维修厂角色，客服角色，管理员角色等）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
+    <t>杨蓉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢创基配合界面设计，杨蓉负责内容和流程设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个保险，还有时间点列清楚（需要后台配合），后台设计完成后，通知前端变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要询问鬼狼他们是否可以分为测试APP版本和正式版本区别。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>詹健鸣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统的测试环境搭建，测试APP地址，代码SVN搭建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2期需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈向荣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨蓉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢创基配合界面设计，杨蓉负责内容和流程设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1529,8 +1537,8 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,7 +1651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>198</v>
       </c>
@@ -1684,7 +1692,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>199</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>65</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>20150420</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>20150425</v>
       </c>
       <c r="F29">
-        <v>20150611</v>
+        <v>20150618</v>
       </c>
       <c r="H29" t="s">
         <v>215</v>
@@ -2216,7 +2224,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
@@ -2490,7 +2498,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
@@ -2546,14 +2554,14 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46">
-        <v>20150611</v>
+        <v>20150618</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
@@ -2563,7 +2571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>114</v>
       </c>
@@ -2585,7 +2593,7 @@
       </c>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
@@ -2645,7 +2653,7 @@
       <c r="I50"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>116</v>
       </c>
@@ -2664,7 +2672,7 @@
       <c r="H51" s="7"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -2724,7 +2732,7 @@
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>120</v>
       </c>
@@ -2746,7 +2754,7 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>121</v>
       </c>
@@ -2765,7 +2773,7 @@
       <c r="H56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>189</v>
       </c>
@@ -2784,7 +2792,7 @@
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>123</v>
       </c>
@@ -2803,7 +2811,7 @@
       <c r="H58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -2825,7 +2833,7 @@
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>152</v>
       </c>
@@ -2836,13 +2844,16 @@
         <v>153</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F60">
         <v>20150611</v>
       </c>
       <c r="H60" t="s">
         <v>218</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -3027,7 +3038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>200</v>
       </c>
@@ -3044,7 +3055,7 @@
         <v>20150514</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>178</v>
       </c>
@@ -3121,7 +3132,7 @@
         <v>20150515</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>197</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>20150515</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>201</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>20150519</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>212</v>
       </c>
@@ -3189,13 +3200,13 @@
         <v>210</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E79">
         <v>20150518</v>
       </c>
       <c r="F79">
-        <v>20150611</v>
+        <v>20150618</v>
       </c>
       <c r="H79" t="s">
         <v>218</v>
@@ -3221,18 +3232,18 @@
         <v>20150611</v>
       </c>
       <c r="H80" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>151</v>
@@ -3244,24 +3255,24 @@
         <v>20150611</v>
       </c>
       <c r="H81" t="s">
+        <v>235</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="E82">
         <v>20150606</v>
@@ -3270,21 +3281,21 @@
         <v>20150611</v>
       </c>
       <c r="H82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83">
         <v>20150606</v>
@@ -3293,14 +3304,31 @@
         <v>20150611</v>
       </c>
       <c r="H83" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I79">
+  <autoFilter ref="A1:I83">
     <filterColumn colId="1">
       <filters>
         <filter val="2期需求"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="20150611"/>
+        <filter val="20150618"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="陈向荣"/>
+        <filter val="谢创基"/>
+        <filter val="杨蓉"/>
+        <filter val="詹健鸣"/>
       </filters>
     </filterColumn>
   </autoFilter>
